--- a/interfaceTest/testFile/case/cainiaotaojin.xlsx
+++ b/interfaceTest/testFile/case/cainiaotaojin.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9564" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9564" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
-    <sheet name="verify" sheetId="2" r:id="rId2"/>
+    <sheet name="coupon" sheetId="6" r:id="rId2"/>
+    <sheet name="order" sheetId="4" r:id="rId3"/>
+    <sheet name="order1" sheetId="5" r:id="rId4"/>
+    <sheet name="verify" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="118">
   <si>
     <t>case_name</t>
   </si>
@@ -126,6 +129,253 @@
   </si>
   <si>
     <t>/futureCounter/api/statistics/mauth/query/user/Frozen/fund</t>
+  </si>
+  <si>
+    <t>查询订购商品列表</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/product/query</t>
+  </si>
+  <si>
+    <t>contracts=&amp;memberChannel=&amp;productIds=</t>
+  </si>
+  <si>
+    <t>送券手机号码</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/coupon/mauth/mobile/single/give</t>
+  </si>
+  <si>
+    <t>amount=1&amp;effectiveTime=1604455164000&amp;expireTime=1636711002000&amp;memberChannel=037&amp;promotionCode=rwv9&amp;mobile=18816545589</t>
+  </si>
+  <si>
+    <t>送券userid</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/coupon/mauth/give</t>
+  </si>
+  <si>
+    <t>amount=1&amp;effectiveTime=1604455164000&amp;expireTime=1636711002000&amp;memberChannel=037&amp;promotionCode=rwv9&amp;userIds=311179</t>
+  </si>
+  <si>
+    <t>送券手机列表</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/coupon/mauth/mobile/give</t>
+  </si>
+  <si>
+    <t>amount=1&amp;effectiveTime=1604455164000&amp;expireTime=1636711002000&amp;memberChannel=037&amp;promotionCode=rwv9&amp;mobiles=18816546050,18816545589</t>
+  </si>
+  <si>
+    <t>查询活动</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/coupon/mauth/promotion/query</t>
+  </si>
+  <si>
+    <t>memberChannel=037&amp;promotionCode=rwv9</t>
+  </si>
+  <si>
+    <t>测试券预定</t>
+  </si>
+  <si>
+    <t>查询体验券</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/coupon/oauth/query</t>
+  </si>
+  <si>
+    <t>memberChannel=037&amp;status=0&amp;userId=311179</t>
+  </si>
+  <si>
+    <t>查询可用券</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/coupon/oauth/usable/query</t>
+  </si>
+  <si>
+    <t>memberChannel=037&amp;preferentialType=&amp;productId=025&amp;sceneType=1&amp;userId=311179</t>
+  </si>
+  <si>
+    <t>查询可用券详情</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/coupon/oauth/usabledetail/query</t>
+  </si>
+  <si>
+    <t>memberChannel=037&amp;userId=311179</t>
+  </si>
+  <si>
+    <t>同步订货</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/order/oauth/sync/create</t>
+  </si>
+  <si>
+    <t>couponId=&amp;bottomRatio=50&amp;couponFlag=0&amp;couponId=&amp;direction=2&amp;limitType=1&amp;number=1&amp;overnightFlag=1&amp;productId=025&amp;topPoint=&amp;topRatio=50&amp;userId=311179</t>
+  </si>
+  <si>
+    <t>查询历史订单</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/order/oauth/history/query</t>
+  </si>
+  <si>
+    <t>currentPage=1&amp;month=20201113&amp;pageSize=20&amp;userId=311179</t>
+  </si>
+  <si>
+    <t>查询未退订订单</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/order/oauth/query</t>
+  </si>
+  <si>
+    <t>中石油储值卡</t>
+  </si>
+  <si>
+    <t>同步零售</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/order/oauth/sync/retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addressId=5facea74e573791ea533baa1&amp;couponFlag=0&amp;couponId=&amp;productId=cfe1ef4234b14b0082a3937bf6853d0f&amp;productNumber=1&amp;userId=311179
+</t>
+  </si>
+  <si>
+    <t>同步零售-多商品通用券</t>
+  </si>
+  <si>
+    <t>修改差价下限</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/order/oauth/bottom/limit/update</t>
+  </si>
+  <si>
+    <t>bottomPoint=&amp;bottomRatio=50&amp;limitType=1&amp;userId=311179&amp;orderNum=</t>
+  </si>
+  <si>
+    <t>修改差价上限</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/order/oauth/top/limit/update</t>
+  </si>
+  <si>
+    <t>limitType=1&amp;topPoint&amp;topRatio=50&amp;userId=311179&amp;orderNum=</t>
+  </si>
+  <si>
+    <t>关闭持仓过夜</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/order/oauth/overnight/close</t>
+  </si>
+  <si>
+    <t>userId=311179&amp;orderNum=</t>
+  </si>
+  <si>
+    <t>同步提货</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/order/oauth/sync/delivery</t>
+  </si>
+  <si>
+    <t>addressId=5facea74e573791ea533baa1&amp;couponFlag=0&amp;couponId=&amp;userId=311179&amp;orderNum=</t>
+  </si>
+  <si>
+    <t>同步退订</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/order/oauth/sync/close</t>
+  </si>
+  <si>
+    <t>ORDER_CLOSE</t>
+  </si>
+  <si>
+    <t>查询客户收支记录情况</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/fund/mauth/payment/detail/query</t>
+  </si>
+  <si>
+    <t>orderNum=1326783101158166528</t>
+  </si>
+  <si>
+    <t>查询客户收支记录1</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/fund/mauth/payment/query/for/verify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currentPage=1&amp;date=20201113&amp;orderNums=&amp;pageSize=20
+</t>
+  </si>
+  <si>
+    <t>查询客户收支记录-查询用户</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/fund/mauth/payment/query/for/verify/v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currentPage=1&amp;memberChannel=037&amp;mobile=18816545589&amp;pageSize=20
+</t>
+  </si>
+  <si>
+    <t>查询余额</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/fund/oauth/balance</t>
+  </si>
+  <si>
+    <t>首次设置资金密码</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/fund/oauth/password/create</t>
+  </si>
+  <si>
+    <t>fundPassword=123456&amp;userId=311179</t>
+  </si>
+  <si>
+    <t>FUND_PWD_EXIST</t>
+  </si>
+  <si>
+    <t>修改资金密码</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/fund/oauth/password/update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newFundPassword=12345&amp;oldFundPassword=123456&amp;userId=311179
+</t>
+  </si>
+  <si>
+    <t>PARAM_ERROR</t>
+  </si>
+  <si>
+    <t>查询收支记录1</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/fund/oauth/payment/detail/query</t>
+  </si>
+  <si>
+    <t>currentPage=1&amp;month=20201113&amp;pageSize=20&amp;type=OPEN_ORDER</t>
+  </si>
+  <si>
+    <t>查询收支记录2</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/fund/oauth/payment/query</t>
+  </si>
+  <si>
+    <t>currentPage=1&amp;month=20201113&amp;pageSize=20&amp;type=OPEN_ORDER&amp;userId=311179</t>
+  </si>
+  <si>
+    <t>查询收支费项类型列表</t>
+  </si>
+  <si>
+    <t>/futureCounter/api/fund/oauth/payment/type/query</t>
+  </si>
+  <si>
+    <t>订货</t>
   </si>
 </sst>
 </file>
@@ -134,9 +384,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -164,16 +414,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,22 +454,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +505,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,11 +519,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,36 +534,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -306,19 +556,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,145 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,6 +771,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -544,41 +824,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,16 +859,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,120 +877,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1090,10 +1341,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1101,7 +1352,7 @@
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="59.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" style="1"/>
+    <col min="5" max="5" width="14.1111111111111" style="2"/>
     <col min="6" max="6" width="56" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1118,7 +1369,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1138,7 +1389,7 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -1158,7 +1409,7 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
@@ -1178,7 +1429,7 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
@@ -1198,7 +1449,7 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
@@ -1218,7 +1469,7 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
@@ -1238,7 +1489,7 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
@@ -1258,7 +1509,7 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
@@ -1278,7 +1529,7 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F9" t="s">
@@ -1298,10 +1549,30 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1315,18 +1586,490 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="59.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1111111111111" style="2"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="59.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.1111111111111" style="2"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="59.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.1111111111111" style="2"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="59.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" style="1"/>
+    <col min="3" max="3" width="59.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1111111111111" style="2"/>
     <col min="6" max="6" width="56" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1337,13 +2080,13 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1352,18 +2095,18 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -1372,19 +2115,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>94</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1392,19 +2135,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+        <v>97</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1412,18 +2155,18 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
@@ -1432,19 +2175,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+        <v>102</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
+      <c r="E6" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1452,19 +2195,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
+        <v>106</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
+      <c r="E7" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1472,19 +2215,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
+        <v>110</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -1492,19 +2235,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
+        <v>113</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1512,19 +2255,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
+      <c r="E10" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
